--- a/natmiOut/OldD0/LR-pairs_lrc2p/Fbn1-Itgb3.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Fbn1-Itgb3.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.48905470207573</v>
+        <v>7.871715666666666</v>
       </c>
       <c r="H2">
-        <v>3.48905470207573</v>
+        <v>23.615147</v>
       </c>
       <c r="I2">
-        <v>0.01255298095702207</v>
+        <v>0.02771913691218268</v>
       </c>
       <c r="J2">
-        <v>0.01255298095702207</v>
+        <v>0.02771913691218268</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.12912233874293</v>
+        <v>7.214110666666667</v>
       </c>
       <c r="N2">
-        <v>6.12912233874293</v>
+        <v>21.642332</v>
       </c>
       <c r="O2">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="P2">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="Q2">
-        <v>21.38484311558842</v>
+        <v>56.7874279558671</v>
       </c>
       <c r="R2">
-        <v>21.38484311558842</v>
+        <v>511.0868516028039</v>
       </c>
       <c r="S2">
-        <v>0.005403125238220906</v>
+        <v>0.01299701487579027</v>
       </c>
       <c r="T2">
-        <v>0.005403125238220906</v>
+        <v>0.01299701487579027</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.48905470207573</v>
+        <v>7.871715666666666</v>
       </c>
       <c r="H3">
-        <v>3.48905470207573</v>
+        <v>23.615147</v>
       </c>
       <c r="I3">
-        <v>0.01255298095702207</v>
+        <v>0.02771913691218268</v>
       </c>
       <c r="J3">
-        <v>0.01255298095702207</v>
+        <v>0.02771913691218268</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.0811189833722</v>
+        <v>7.110350666666666</v>
       </c>
       <c r="N3">
-        <v>7.0811189833722</v>
+        <v>21.331052</v>
       </c>
       <c r="O3">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="P3">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="Q3">
-        <v>24.70641148489248</v>
+        <v>55.97065873829377</v>
       </c>
       <c r="R3">
-        <v>24.70641148489248</v>
+        <v>503.7359286446439</v>
       </c>
       <c r="S3">
-        <v>0.0062423574827437</v>
+        <v>0.01281007980841694</v>
       </c>
       <c r="T3">
-        <v>0.0062423574827437</v>
+        <v>0.01281007980841694</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.48905470207573</v>
+        <v>7.871715666666666</v>
       </c>
       <c r="H4">
-        <v>3.48905470207573</v>
+        <v>23.615147</v>
       </c>
       <c r="I4">
-        <v>0.01255298095702207</v>
+        <v>0.02771913691218268</v>
       </c>
       <c r="J4">
-        <v>0.01255298095702207</v>
+        <v>0.02771913691218268</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.02943527417126</v>
+        <v>1.061296333333333</v>
       </c>
       <c r="N4">
-        <v>1.02943527417126</v>
+        <v>3.183889</v>
       </c>
       <c r="O4">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="P4">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="Q4">
-        <v>3.591755983829853</v>
+        <v>8.354222974075887</v>
       </c>
       <c r="R4">
-        <v>3.591755983829853</v>
+        <v>75.18800676668299</v>
       </c>
       <c r="S4">
-        <v>0.0009074982360574616</v>
+        <v>0.001912042227975479</v>
       </c>
       <c r="T4">
-        <v>0.0009074982360574616</v>
+        <v>0.001912042227975478</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>264.648174721028</v>
+        <v>266.1315866666666</v>
       </c>
       <c r="H5">
-        <v>264.648174721028</v>
+        <v>798.3947599999999</v>
       </c>
       <c r="I5">
-        <v>0.9521557502687749</v>
+        <v>0.9371448614065047</v>
       </c>
       <c r="J5">
-        <v>0.9521557502687749</v>
+        <v>0.9371448614065045</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.12912233874293</v>
+        <v>7.214110666666667</v>
       </c>
       <c r="N5">
-        <v>6.12912233874293</v>
+        <v>21.642332</v>
       </c>
       <c r="O5">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="P5">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="Q5">
-        <v>1622.061039590195</v>
+        <v>1919.902718108924</v>
       </c>
       <c r="R5">
-        <v>1622.061039590195</v>
+        <v>17279.12446298032</v>
       </c>
       <c r="S5">
-        <v>0.4098322767005004</v>
+        <v>0.4394107126444312</v>
       </c>
       <c r="T5">
-        <v>0.4098322767005004</v>
+        <v>0.4394107126444312</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>264.648174721028</v>
+        <v>266.1315866666666</v>
       </c>
       <c r="H6">
-        <v>264.648174721028</v>
+        <v>798.3947599999999</v>
       </c>
       <c r="I6">
-        <v>0.9521557502687749</v>
+        <v>0.9371448614065047</v>
       </c>
       <c r="J6">
-        <v>0.9521557502687749</v>
+        <v>0.9371448614065045</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.0811189833722</v>
+        <v>7.110350666666666</v>
       </c>
       <c r="N6">
-        <v>7.0811189833722</v>
+        <v>21.331052</v>
       </c>
       <c r="O6">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="P6">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="Q6">
-        <v>1874.005213931874</v>
+        <v>1892.288904676391</v>
       </c>
       <c r="R6">
-        <v>1874.005213931874</v>
+        <v>17030.60014208752</v>
       </c>
       <c r="S6">
-        <v>0.4734888543826602</v>
+        <v>0.4330907020914114</v>
       </c>
       <c r="T6">
-        <v>0.4734888543826602</v>
+        <v>0.4330907020914113</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>264.648174721028</v>
+        <v>266.1315866666666</v>
       </c>
       <c r="H7">
-        <v>264.648174721028</v>
+        <v>798.3947599999999</v>
       </c>
       <c r="I7">
-        <v>0.9521557502687749</v>
+        <v>0.9371448614065047</v>
       </c>
       <c r="J7">
-        <v>0.9521557502687749</v>
+        <v>0.9371448614065045</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.02943527417126</v>
+        <v>1.061296333333333</v>
       </c>
       <c r="N7">
-        <v>1.02943527417126</v>
+        <v>3.183889</v>
       </c>
       <c r="O7">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="P7">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="Q7">
-        <v>272.438166302865</v>
+        <v>282.4444771135155</v>
       </c>
       <c r="R7">
-        <v>272.438166302865</v>
+        <v>2542.00029402164</v>
       </c>
       <c r="S7">
-        <v>0.0688346191856143</v>
+        <v>0.06464344667066216</v>
       </c>
       <c r="T7">
-        <v>0.0688346191856143</v>
+        <v>0.06464344667066216</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.809077834215261</v>
+        <v>9.977966333333333</v>
       </c>
       <c r="H8">
-        <v>9.809077834215261</v>
+        <v>29.933899</v>
       </c>
       <c r="I8">
-        <v>0.03529126877420302</v>
+        <v>0.03513600168131278</v>
       </c>
       <c r="J8">
-        <v>0.03529126877420302</v>
+        <v>0.03513600168131277</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.12912233874293</v>
+        <v>7.214110666666667</v>
       </c>
       <c r="N8">
-        <v>6.12912233874293</v>
+        <v>21.642332</v>
       </c>
       <c r="O8">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="P8">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="Q8">
-        <v>60.12103807615688</v>
+        <v>71.98215335694088</v>
       </c>
       <c r="R8">
-        <v>60.12103807615688</v>
+        <v>647.839380212468</v>
       </c>
       <c r="S8">
-        <v>0.01519026800531125</v>
+        <v>0.01647465207789744</v>
       </c>
       <c r="T8">
-        <v>0.01519026800531125</v>
+        <v>0.01647465207789744</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.809077834215261</v>
+        <v>9.977966333333333</v>
       </c>
       <c r="H9">
-        <v>9.809077834215261</v>
+        <v>29.933899</v>
       </c>
       <c r="I9">
-        <v>0.03529126877420302</v>
+        <v>0.03513600168131278</v>
       </c>
       <c r="J9">
-        <v>0.03529126877420302</v>
+        <v>0.03513600168131277</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.0811189833722</v>
+        <v>7.110350666666666</v>
       </c>
       <c r="N9">
-        <v>7.0811189833722</v>
+        <v>21.331052</v>
       </c>
       <c r="O9">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="P9">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="Q9">
-        <v>69.45924726123714</v>
+        <v>70.94683957019421</v>
       </c>
       <c r="R9">
-        <v>69.45924726123714</v>
+        <v>638.521556131748</v>
       </c>
       <c r="S9">
-        <v>0.01754967337737658</v>
+        <v>0.01623769842157205</v>
       </c>
       <c r="T9">
-        <v>0.01754967337737658</v>
+        <v>0.01623769842157205</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.809077834215261</v>
+        <v>9.977966333333333</v>
       </c>
       <c r="H10">
-        <v>9.809077834215261</v>
+        <v>29.933899</v>
       </c>
       <c r="I10">
-        <v>0.03529126877420302</v>
+        <v>0.03513600168131278</v>
       </c>
       <c r="J10">
-        <v>0.03529126877420302</v>
+        <v>0.03513600168131277</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.02943527417126</v>
+        <v>1.061296333333333</v>
       </c>
       <c r="N10">
-        <v>1.02943527417126</v>
+        <v>3.183889</v>
       </c>
       <c r="O10">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="P10">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="Q10">
-        <v>10.09781072963262</v>
+        <v>10.58957908369011</v>
       </c>
       <c r="R10">
-        <v>10.09781072963262</v>
+        <v>95.30621175321099</v>
       </c>
       <c r="S10">
-        <v>0.002551327391515194</v>
+        <v>0.002423651181843287</v>
       </c>
       <c r="T10">
-        <v>0.002551327391515194</v>
+        <v>0.002423651181843287</v>
       </c>
     </row>
   </sheetData>
